--- a/biology/Botanique/Nicolas-Alexandre_de_Ségur/Nicolas-Alexandre_de_Ségur.xlsx
+++ b/biology/Botanique/Nicolas-Alexandre_de_Ségur/Nicolas-Alexandre_de_Ségur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas-Alexandre_de_S%C3%A9gur</t>
+          <t>Nicolas-Alexandre_de_Ségur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas-Alexandre, marquis de Ségur, né le 20 octobre 1697 à Bordeaux et mort le 24 mars 1755 à Paris, est un président du parlement de Bordeaux et un propriétaire de grands domaines viticoles bordelais comme notamment Château Latour, Château Lafite, Château Mouton, et Château Calon-Ségur lui valant le surnom de Prince des vignes donné par Louis XV.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas-Alexandre_de_S%C3%A9gur</t>
+          <t>Nicolas-Alexandre_de_Ségur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,52 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fils d'Alexandre de Ségur de Francs et de Marie-Thérèse de Clausel, Nicolas-Alexandre de Ségur hérite du Château Latour par sa grand-mère maternelle. En 1716, son père acquiert le Château Lafite dont hérite son fils l'année suivante à la mort de celui-ci. En 1718, Nicolas-Alexandre achète les prestigieux château Mouton et château Calon-Ségur. Il possédera également un temps le château Pontet-Canet.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'Alexandre de Ségur de Francs et de Marie-Thérèse de Clausel, Nicolas-Alexandre de Ségur hérite du Château Latour par sa grand-mère maternelle. En 1716, son père acquiert le Château Lafite dont hérite son fils l'année suivante à la mort de celui-ci. En 1718, Nicolas-Alexandre achète les prestigieux château Mouton et château Calon-Ségur. Il possédera également un temps le château Pontet-Canet.
 Sous son influence, le Château Lafite connaît un essor et un prestige grandissant, notamment en Grande-Bretagne. Le duc de Richelieu, Louis-François-Armand de Vignerot du Plessis, introduisit les vins du marquis de Ségur à la cour de Louis XV qui lui prêta alors le surnom de Prince des vignes[réf. nécessaire]. On accorde à Nicolas-Alexandre de Ségur d'avoir tracé la séparation des vignobles de Latour et Mouton-Rothschild distinguant le style spécifique des vins de chaque domaine.
 Il fut également le président du Parlement de Bordeaux.
 À sa mort en 1755, les différents domaines sont vendus, cependant le Château Latour restera dans la famille de Ségur jusqu'en 1963.
-Il était propriétaire de l'hôtel de Valentinois (Passy)[1].
-Famille
-Nicolas-Alexandre de Ségur épouse en juin 1721 Charlotte Émilie Le Fèvre de Caumartin, fille de Louis François II Le Fèvre de Caumartin, intendant du Commerce, dont il eut quatre filles :
+Il était propriétaire de l'hôtel de Valentinois (Passy).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nicolas-Alexandre_de_Ségur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas-Alexandre_de_S%C3%A9gur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nicolas-Alexandre de Ségur épouse en juin 1721 Charlotte Émilie Le Fèvre de Caumartin, fille de Louis François II Le Fèvre de Caumartin, intendant du Commerce, dont il eut quatre filles :
 Marie Thérese qui épousera Alexandre de Ségur
 Charlotte Emilie de Ségur, qui épousera le comte Emmanuel Louis de Coëtlogon
 Angélique
